--- a/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>180,72%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-2,65; 3,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,87; 9,53</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-5,9; 1,85</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-66,76; 263,62</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,45; 556,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,69; 52,85</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,34%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,02; 2,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,3; 3,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 1,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,59; 104,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,45; 100,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,03; 91,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,99; 150,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,64%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,42%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 4,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 3,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 9,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,13; 617,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,32; 194,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,97; 361,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,05; 117,93</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>108,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,63%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,96%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 6,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 7,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 6,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,67; 462,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,06; 209,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 243,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,61; 136,37</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,6%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,06%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 5,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 4,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 4,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,18; 12,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,79; 730,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,2; 80,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,12; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,78; 118,43</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>130,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,06%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 5,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; 1,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 2,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 6,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,82; 732,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,83; 71,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,58; 119,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,17; 51,04</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,76%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,78%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 4,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 3,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,64; 4,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,56; 181,15</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 182,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,92; 130,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,05; 84,88</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,2%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,1%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,33%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,34; 1,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 3,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 1,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,58; 54,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,49; 164,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,12; 138,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,16; 42,28</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,97%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,51%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,75%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,08; 1,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,18; 2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,5; 2,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 74,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 60,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,52; 85,27</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,22; 49,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,08%</t>
+          <t>-26,83%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,17; 5,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,85</t>
+          <t>-8,0; 1,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,2; 129,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-63,69; 52,85</t>
+          <t>-70,89; 40,38</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,34%</t>
+          <t>30,15%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,66</t>
+          <t>-1,25; 2,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 150,32</t>
+          <t>-36,4; 154,76</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,42%</t>
+          <t>51,92%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 9,85</t>
+          <t>1,48; 9,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 117,93</t>
+          <t>11,52; 119,2</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>255,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,96%</t>
+          <t>28,47%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,3</t>
+          <t>2,25; 8,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 6,35</t>
+          <t>-3,87; 5,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,06; 209,74</t>
+          <t>45,2; 706,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 136,37</t>
+          <t>-42,37; 104,59</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>56,73%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,18; 12,32</t>
+          <t>2,42; 12,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,78; 118,43</t>
+          <t>14,79; 118,91</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>1,98</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>14,21%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 6,16</t>
+          <t>-2,95; 6,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,17; 51,04</t>
+          <t>-17,66; 53,42</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>24,78%</t>
+          <t>13,36%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 4,11</t>
+          <t>-3,23; 3,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 84,88</t>
+          <t>-46,02; 76,94</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,33%</t>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,1</t>
+          <t>-1,24; 2,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 42,28</t>
+          <t>-31,59; 163,05</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>27,75%</t>
+          <t>30,17%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,81</t>
+          <t>0,17; 3,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 49,19</t>
+          <t>3,81; 66,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16A13-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,06</t>
+          <t>-2,41; 3,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,11</t>
+          <t>-4,3; 4,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,53</t>
+          <t>1,43; 9,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 1,5</t>
+          <t>-7,68; 1,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,76; 263,62</t>
+          <t>-67,57; 262,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,2; 129,72</t>
+          <t>-51,73; 121,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,45; 556,81</t>
+          <t>24,94; 620,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 40,38</t>
+          <t>-68,83; 41,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 2,49</t>
+          <t>-2,0; 2,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,77</t>
+          <t>-2,35; 3,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,12</t>
+          <t>-2,12; 1,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,59</t>
+          <t>-1,33; 2,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,59; 104,19</t>
+          <t>-42,97; 109,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 100,79</t>
+          <t>-33,45; 103,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,03; 91,7</t>
+          <t>-70,24; 103,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,4; 154,76</t>
+          <t>-36,11; 198,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,76</t>
+          <t>-0,29; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,65</t>
+          <t>-3,18; 3,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,22</t>
+          <t>-2,25; 1,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,86</t>
+          <t>1,11; 9,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,13; 617,64</t>
+          <t>-22,76; 809,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,32; 194,89</t>
+          <t>-58,71; 178,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-74,97; 361,81</t>
+          <t>-78,45; 197,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 119,2</t>
+          <t>6,87; 110,92</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,66</t>
+          <t>-0,24; 4,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 8,94</t>
+          <t>2,34; 9,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 7,1</t>
+          <t>-0,27; 7,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 5,17</t>
+          <t>-2,73; 5,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,67; 462,1</t>
+          <t>-24,64; 502,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,2; 706,42</t>
+          <t>53,79; 849,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 243,22</t>
+          <t>-10,22; 216,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 104,59</t>
+          <t>-34,4; 117,08</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,58</t>
+          <t>-1,1; 5,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 4,34</t>
+          <t>-6,12; 4,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 4,81</t>
+          <t>-0,98; 5,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 12,5</t>
+          <t>2,53; 13,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 730,9</t>
+          <t>-52,6; 804,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 80,9</t>
+          <t>-59,6; 94,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-58,12; —</t>
+          <t>-61,63; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,79; 118,91</t>
+          <t>13,55; 127,56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 5,79</t>
+          <t>-0,3; 5,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 1,94</t>
+          <t>-5,15; 1,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 2,05</t>
+          <t>-3,37; 2,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 6,43</t>
+          <t>-2,65; 6,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 732,71</t>
+          <t>-27,54; 588,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-67,83; 71,81</t>
+          <t>-69,51; 60,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 119,4</t>
+          <t>-75,54; 169,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,66; 53,42</t>
+          <t>-16,22; 53,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,76</t>
+          <t>-0,69; 3,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 4,1</t>
+          <t>-0,57; 4,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 3,61</t>
+          <t>-1,31; 3,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,78</t>
+          <t>-4,0; 3,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 181,15</t>
+          <t>-18,98; 167,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 182,03</t>
+          <t>-15,73; 149,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 130,91</t>
+          <t>-30,01; 133,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 76,94</t>
+          <t>-48,78; 68,66</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 1,0</t>
+          <t>-2,41; 0,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,15</t>
+          <t>-0,43; 3,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,39</t>
+          <t>-1,08; 2,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,45</t>
+          <t>-1,34; 2,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 54,1</t>
+          <t>-61,29; 42,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 164,31</t>
+          <t>-15,8; 191,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 138,66</t>
+          <t>-32,08; 145,51</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 163,05</t>
+          <t>-35,15; 154,34</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,73</t>
+          <t>0,17; 1,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,18; 2,23</t>
+          <t>0,14; 2,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,11</t>
+          <t>0,11; 2,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 3,31</t>
+          <t>0,09; 3,27</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,07; 74,04</t>
+          <t>4,84; 78,22</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,62; 60,8</t>
+          <t>2,78; 64,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>6,52; 85,27</t>
+          <t>2,88; 80,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 66,2</t>
+          <t>2,49; 62,71</t>
         </is>
       </c>
     </row>
